--- a/회귀분석모델 및 유사도산출/Readme.xlsx
+++ b/회귀분석모델 및 유사도산출/Readme.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15172BFD-122D-4F23-8232-AA0E51051909}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B3B25A-BA4B-4DC9-9A40-63A13A5EFB30}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시나리오 1.1. 회귀 모델 분석 (단순 선형)" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="102">
   <si>
     <t>input_시계열모델_데이터유형.csv</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,10 +119,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">유사성 모델 분석 결과 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>요약</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -211,10 +207,6 @@
   </si>
   <si>
     <t>c0 ~ cn 컬럼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">유사성 모델 분석 결과 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -409,10 +401,6 @@
   </si>
   <si>
     <t xml:space="preserve">모델 이름 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>output_AutoML_예측값.csv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -943,7 +931,7 @@
   <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -961,61 +949,61 @@
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D2" s="31"/>
     </row>
     <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="8"/>
       <c r="B3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>34</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>35</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="E6" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F6" s="32" t="s">
         <v>9</v>
@@ -1039,7 +1027,7 @@
         <v>7</v>
       </c>
       <c r="H8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.4">
@@ -1055,30 +1043,30 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D10" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="E11" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="E12" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G12" s="32"/>
       <c r="H12" s="32"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="F13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
@@ -1086,12 +1074,12 @@
         <v>8</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="E15" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F15" s="17" t="s">
         <v>15</v>
@@ -1112,7 +1100,7 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.4">
       <c r="F17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G17" t="s">
         <v>19</v>
@@ -1123,7 +1111,7 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.4">
       <c r="E18" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -1142,7 +1130,7 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.4">
       <c r="F20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G20" t="s">
         <v>22</v>
@@ -1153,10 +1141,10 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D21" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F21" s="17" t="s">
         <v>21</v>
@@ -1191,31 +1179,31 @@
     </row>
     <row r="25" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B25" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E25" s="8"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C26" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C27" s="14"/>
       <c r="E27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F27" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" t="s">
         <v>46</v>
-      </c>
-      <c r="G27" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.4">
@@ -1223,14 +1211,14 @@
         <v>8</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E28"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C29" s="14"/>
       <c r="E29" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F29" s="17" t="s">
         <v>15</v>
@@ -1247,12 +1235,12 @@
       <c r="D31"/>
       <c r="E31" s="4"/>
       <c r="F31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.4">
       <c r="E32" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F32" t="s">
         <v>18</v>
@@ -1265,15 +1253,15 @@
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.4">
       <c r="F34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D35" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F35" s="17" t="s">
         <v>21</v>
@@ -1291,25 +1279,25 @@
     </row>
     <row r="38" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B38" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="12"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C39" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.4">
       <c r="E40" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F40" s="17" t="s">
         <v>9</v>
@@ -1334,30 +1322,30 @@
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D44" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.4">
       <c r="E45" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.4">
       <c r="E46" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F46" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G46" s="32"/>
       <c r="H46" s="32"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.4">
       <c r="F47" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G47" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.4">
@@ -1365,13 +1353,13 @@
         <v>8</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C49" s="14"/>
       <c r="E49" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F49" s="17" t="s">
         <v>15</v>
@@ -1388,12 +1376,12 @@
       <c r="D51"/>
       <c r="E51" s="4"/>
       <c r="F51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.4">
       <c r="E52" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F52" t="s">
         <v>18</v>
@@ -1406,15 +1394,15 @@
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.4">
       <c r="F54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.4">
       <c r="D55" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F55" s="17" t="s">
         <v>21</v>
@@ -1447,8 +1435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1465,13 +1453,13 @@
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="30" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>17</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D1" s="29"/>
       <c r="E1" s="29"/>
@@ -1484,13 +1472,13 @@
     </row>
     <row r="2" spans="1:11" ht="31.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="18" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D2" s="33"/>
       <c r="E2" s="18"/>
@@ -1504,10 +1492,10 @@
     <row r="3" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="27"/>
       <c r="B3" s="28" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D3" s="27"/>
       <c r="E3" s="27"/>
@@ -1522,10 +1510,10 @@
       <c r="A4" s="19"/>
       <c r="B4" s="19"/>
       <c r="C4" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="26" t="s">
         <v>28</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>29</v>
       </c>
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
@@ -1538,10 +1526,10 @@
       <c r="B5" s="24"/>
       <c r="C5" s="25"/>
       <c r="E5" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G5" s="24"/>
       <c r="H5" s="24"/>
@@ -1553,10 +1541,10 @@
       <c r="A6" s="18"/>
       <c r="B6" s="18"/>
       <c r="E6" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
@@ -1588,7 +1576,7 @@
         <v>7</v>
       </c>
       <c r="H8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
@@ -1601,10 +1589,10 @@
         <v>3</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J9" s="18"/>
       <c r="K9" s="18"/>
@@ -1614,7 +1602,7 @@
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
       <c r="D10" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
@@ -1625,10 +1613,10 @@
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
       <c r="E11" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
@@ -1639,10 +1627,10 @@
       <c r="C12" s="18"/>
       <c r="E12" s="18"/>
       <c r="F12" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
@@ -1654,7 +1642,7 @@
         <v>8</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J13" s="18"/>
       <c r="K13" s="18"/>
@@ -1665,10 +1653,10 @@
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
       <c r="E14" s="18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H14" s="18"/>
       <c r="J14" s="18"/>
@@ -1680,10 +1668,10 @@
       <c r="C15" s="18"/>
       <c r="E15" s="18"/>
       <c r="F15" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H15" s="18"/>
       <c r="J15" s="18"/>
@@ -1694,10 +1682,10 @@
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
       <c r="E16" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>49</v>
+        <v>91</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>21</v>
       </c>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
@@ -1708,7 +1696,7 @@
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
       <c r="F17" s="18" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G17" s="18" t="s">
         <v>18</v>
@@ -1722,10 +1710,10 @@
       <c r="B18" s="18"/>
       <c r="E18" s="21"/>
       <c r="F18" s="18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H18" s="18"/>
       <c r="I18" s="18"/>
@@ -1736,10 +1724,10 @@
       <c r="A19" s="18"/>
       <c r="B19" s="18"/>
       <c r="F19" s="18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
@@ -1747,20 +1735,20 @@
     </row>
     <row r="20" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B20" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E20" s="8"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21"/>
       <c r="C21" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E21" s="4"/>
     </row>
@@ -1768,13 +1756,13 @@
       <c r="A22"/>
       <c r="C22" s="14"/>
       <c r="E22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F22" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" t="s">
         <v>46</v>
-      </c>
-      <c r="G22" t="s">
-        <v>47</v>
       </c>
       <c r="H22" s="32"/>
       <c r="I22" s="32"/>
@@ -1786,7 +1774,7 @@
         <v>8</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G23" s="4"/>
     </row>
@@ -1796,10 +1784,10 @@
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
       <c r="E24" s="18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H24" s="18"/>
       <c r="J24" s="18"/>
@@ -1814,7 +1802,7 @@
         <v>18</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H25" s="18"/>
       <c r="J25" s="18"/>
@@ -1825,10 +1813,10 @@
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
       <c r="E26" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>25</v>
+        <v>91</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>21</v>
       </c>
       <c r="G26" s="18"/>
       <c r="H26" s="18"/>
@@ -1839,7 +1827,7 @@
       <c r="A27" s="18"/>
       <c r="B27" s="18"/>
       <c r="F27" s="18" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G27" s="18" t="s">
         <v>18</v>
@@ -1853,10 +1841,10 @@
       <c r="B28" s="18"/>
       <c r="E28" s="21"/>
       <c r="F28" s="18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H28" s="18"/>
       <c r="I28" s="18"/>
@@ -1870,7 +1858,7 @@
         <v>24</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I29" s="18"/>
       <c r="J29" s="18"/>
@@ -1878,10 +1866,10 @@
     </row>
     <row r="30" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B30" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="12"/>
@@ -1889,20 +1877,20 @@
     <row r="31" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A31"/>
       <c r="C31" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="E32" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G32" s="17"/>
       <c r="H32" s="17"/>
@@ -1925,29 +1913,29 @@
       <c r="A35"/>
       <c r="E35" s="4"/>
       <c r="F35" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="D36" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E36" s="4"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="E37" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="E38" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G38" s="17"/>
       <c r="H38" s="17"/>
@@ -1956,16 +1944,16 @@
       <c r="A39"/>
       <c r="E39" s="4"/>
       <c r="F39" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="C40" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G40" s="4"/>
     </row>
@@ -1975,10 +1963,10 @@
       <c r="C41" s="18"/>
       <c r="D41" s="18"/>
       <c r="E41" s="18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H41" s="18"/>
       <c r="J41" s="18"/>
@@ -1993,7 +1981,7 @@
         <v>18</v>
       </c>
       <c r="G42" s="21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H42" s="18"/>
       <c r="J42" s="18"/>
@@ -2004,10 +1992,10 @@
       <c r="B43" s="18"/>
       <c r="C43" s="18"/>
       <c r="E43" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="F43" s="18" t="s">
-        <v>25</v>
+        <v>91</v>
+      </c>
+      <c r="F43" s="17" t="s">
+        <v>21</v>
       </c>
       <c r="G43" s="18"/>
       <c r="H43" s="18"/>
@@ -2018,7 +2006,7 @@
       <c r="A44" s="18"/>
       <c r="B44" s="18"/>
       <c r="F44" s="18" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G44" s="18" t="s">
         <v>18</v>
@@ -2032,10 +2020,10 @@
       <c r="B45" s="18"/>
       <c r="E45" s="21"/>
       <c r="F45" s="18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G45" s="18" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H45" s="18"/>
       <c r="I45" s="18"/>
@@ -2049,7 +2037,7 @@
         <v>24</v>
       </c>
       <c r="G46" s="21" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I46" s="18"/>
       <c r="J46" s="18"/>
@@ -2070,8 +2058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2088,13 +2076,13 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -2104,13 +2092,13 @@
     </row>
     <row r="2" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D2" s="31"/>
       <c r="E2" s="4"/>
@@ -2121,10 +2109,10 @@
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="8"/>
       <c r="B3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>34</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>35</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -2134,10 +2122,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="E4" s="4"/>
     </row>
@@ -2145,15 +2133,15 @@
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="E6" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F6" s="32" t="s">
         <v>9</v>
@@ -2179,7 +2167,7 @@
         <v>7</v>
       </c>
       <c r="H8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
@@ -2196,21 +2184,21 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D10" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="E11" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="E12" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="32" t="s">
         <v>81</v>
-      </c>
-      <c r="F12" s="32" t="s">
-        <v>83</v>
       </c>
       <c r="G12" s="32"/>
       <c r="H12" s="32"/>
@@ -2218,10 +2206,10 @@
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="E13" s="4"/>
       <c r="F13" s="20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H13" s="20"/>
     </row>
@@ -2230,16 +2218,16 @@
         <v>8</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="E15" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
@@ -2247,7 +2235,7 @@
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="E16" s="4"/>
       <c r="F16" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
@@ -2265,10 +2253,10 @@
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="9"/>
       <c r="B18" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="8"/>
@@ -2278,23 +2266,23 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C19" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C20" s="14"/>
       <c r="E20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
@@ -2302,22 +2290,22 @@
         <v>8</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C22" s="14"/>
       <c r="E22" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="E23" s="4"/>
       <c r="F23" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
@@ -2326,10 +2314,10 @@
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="9"/>
       <c r="B25" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="12"/>
@@ -2339,10 +2327,10 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C26" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="E26" s="4"/>
     </row>
@@ -2376,21 +2364,21 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D31" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="E32" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.4">
       <c r="E33" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F33" s="32" t="s">
         <v>81</v>
-      </c>
-      <c r="F33" s="32" t="s">
-        <v>83</v>
       </c>
       <c r="G33" s="32"/>
       <c r="H33" s="32"/>
@@ -2398,10 +2386,10 @@
     <row r="34" spans="3:8" x14ac:dyDescent="0.4">
       <c r="E34" s="4"/>
       <c r="F34" s="20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G34" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H34" s="20"/>
     </row>
@@ -2410,23 +2398,23 @@
         <v>8</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E35" s="4"/>
     </row>
     <row r="36" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C36" s="14"/>
       <c r="E36" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="3:8" x14ac:dyDescent="0.4">
       <c r="E37" s="4"/>
       <c r="F37" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/회귀분석모델 및 유사도산출/Readme.xlsx
+++ b/회귀분석모델 및 유사도산출/Readme.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B3B25A-BA4B-4DC9-9A40-63A13A5EFB30}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999E7B9D-3BD8-4AC1-ACF4-194CAD8036C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시나리오 1.1. 회귀 모델 분석 (단순 선형)" sheetId="1" r:id="rId1"/>
@@ -17,11 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="102">
-  <si>
-    <t>input_시계열모델_데이터유형.csv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="99">
   <si>
     <t>col_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -226,10 +222,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>input_AutoML_설정옵션.csv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>모델개발용 옵션 선택</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -279,10 +271,6 @@
   </si>
   <si>
     <t>AutoML 모델 설정 옵션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>input_AutoML_설정옵션.csv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -332,13 +320,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>input_LSTM_데이터유형.csv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>input_AutoML_설정옵션.csv</t>
-  </si>
-  <si>
     <t>예측 id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -372,10 +353,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>input_AutoML_설정옵션.csv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>model 모델 설정 옵션</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -425,6 +402,18 @@
   </si>
   <si>
     <t>1~10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>input_모델_데이터유형.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>input_모델_설정옵션.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>input_모델_설정옵션.csv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -930,8 +919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -949,229 +938,229 @@
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D2" s="31"/>
     </row>
     <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="8"/>
       <c r="B3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>33</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>34</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="E6" s="4" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G6" s="32"/>
       <c r="H6" s="32"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="F7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="F8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D10" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="E11" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="E12" s="4" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G12" s="32"/>
       <c r="H12" s="32"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="F13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C14" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="E15" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="F16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" t="s">
         <v>10</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>11</v>
-      </c>
-      <c r="H16" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.4">
       <c r="F17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" t="s">
         <v>19</v>
-      </c>
-      <c r="H17" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.4">
       <c r="E18" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.4">
       <c r="F19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" t="s">
         <v>10</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>11</v>
-      </c>
-      <c r="H19" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.4">
       <c r="F20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" t="s">
         <v>22</v>
-      </c>
-      <c r="H20" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D21" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.4">
       <c r="F22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" t="s">
         <v>10</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>11</v>
-      </c>
-      <c r="H22" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.4">
       <c r="F23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
         <v>13</v>
       </c>
-      <c r="G23" t="s">
-        <v>14</v>
-      </c>
       <c r="H23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1179,54 +1168,54 @@
     </row>
     <row r="25" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B25" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E25" s="8"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C26" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C27" s="14"/>
       <c r="E27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F27" t="s">
+        <v>44</v>
+      </c>
+      <c r="G27" t="s">
         <v>45</v>
-      </c>
-      <c r="G27" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C28" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E28"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C29" s="14"/>
       <c r="E29" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.4">
       <c r="F30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="2:8" s="15" customFormat="1" x14ac:dyDescent="0.4">
@@ -1235,139 +1224,139 @@
       <c r="D31"/>
       <c r="E31" s="4"/>
       <c r="F31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.4">
       <c r="E32" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.4">
       <c r="F33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.4">
       <c r="F34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D35" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.4">
       <c r="F36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.4">
       <c r="F37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B38" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="12"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C39" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.4">
       <c r="E40" s="4" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G40" s="17"/>
       <c r="H40" s="17"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.4">
       <c r="F41" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.4">
       <c r="F42" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.4">
       <c r="F43" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D44" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.4">
       <c r="E45" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.4">
       <c r="E46" s="4" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="F46" s="32" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G46" s="32"/>
       <c r="H46" s="32"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.4">
       <c r="F47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G47" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C48" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C49" s="14"/>
       <c r="E49" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F49" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.4">
       <c r="F50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.4">
@@ -1376,46 +1365,46 @@
       <c r="D51"/>
       <c r="E51" s="4"/>
       <c r="F51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.4">
       <c r="E52" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.4">
       <c r="F53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.4">
       <c r="F54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.4">
       <c r="D55" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F55" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.4">
       <c r="F56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.4">
       <c r="F57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1435,8 +1424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1453,13 +1442,13 @@
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="30" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D1" s="29"/>
       <c r="E1" s="29"/>
@@ -1472,13 +1461,13 @@
     </row>
     <row r="2" spans="1:11" ht="31.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="18" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D2" s="33"/>
       <c r="E2" s="18"/>
@@ -1492,10 +1481,10 @@
     <row r="3" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="27"/>
       <c r="B3" s="28" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D3" s="27"/>
       <c r="E3" s="27"/>
@@ -1510,10 +1499,10 @@
       <c r="A4" s="19"/>
       <c r="B4" s="19"/>
       <c r="C4" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="26" t="s">
         <v>27</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>28</v>
       </c>
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
@@ -1526,10 +1515,10 @@
       <c r="B5" s="24"/>
       <c r="C5" s="25"/>
       <c r="E5" s="18" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G5" s="24"/>
       <c r="H5" s="24"/>
@@ -1541,10 +1530,10 @@
       <c r="A6" s="18"/>
       <c r="B6" s="18"/>
       <c r="E6" s="4" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
@@ -1556,10 +1545,10 @@
       <c r="B7" s="18"/>
       <c r="E7" s="18"/>
       <c r="F7" s="18" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H7" s="18"/>
       <c r="J7" s="18"/>
@@ -1570,13 +1559,13 @@
       <c r="B8" s="18"/>
       <c r="E8" s="18"/>
       <c r="F8" s="18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
@@ -1586,13 +1575,13 @@
       <c r="B9" s="18"/>
       <c r="E9" s="18"/>
       <c r="F9" s="18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J9" s="18"/>
       <c r="K9" s="18"/>
@@ -1602,7 +1591,7 @@
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
       <c r="D10" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
@@ -1613,10 +1602,10 @@
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
       <c r="E11" s="18" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
@@ -1627,10 +1616,10 @@
       <c r="C12" s="18"/>
       <c r="E12" s="18"/>
       <c r="F12" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
@@ -1639,10 +1628,10 @@
       <c r="A13" s="18"/>
       <c r="B13" s="18"/>
       <c r="C13" s="22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J13" s="18"/>
       <c r="K13" s="18"/>
@@ -1653,10 +1642,10 @@
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
       <c r="E14" s="18" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H14" s="18"/>
       <c r="J14" s="18"/>
@@ -1668,10 +1657,10 @@
       <c r="C15" s="18"/>
       <c r="E15" s="18"/>
       <c r="F15" s="18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H15" s="18"/>
       <c r="J15" s="18"/>
@@ -1682,10 +1671,10 @@
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
       <c r="E16" s="18" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
@@ -1696,10 +1685,10 @@
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
       <c r="F17" s="18" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H17" s="21"/>
       <c r="J17" s="18"/>
@@ -1710,10 +1699,10 @@
       <c r="B18" s="18"/>
       <c r="E18" s="21"/>
       <c r="F18" s="18" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H18" s="18"/>
       <c r="I18" s="18"/>
@@ -1724,10 +1713,10 @@
       <c r="A19" s="18"/>
       <c r="B19" s="18"/>
       <c r="F19" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
@@ -1735,20 +1724,20 @@
     </row>
     <row r="20" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B20" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E20" s="8"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21"/>
       <c r="C21" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E21" s="4"/>
     </row>
@@ -1756,13 +1745,13 @@
       <c r="A22"/>
       <c r="C22" s="14"/>
       <c r="E22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" t="s">
         <v>45</v>
-      </c>
-      <c r="G22" t="s">
-        <v>46</v>
       </c>
       <c r="H22" s="32"/>
       <c r="I22" s="32"/>
@@ -1771,10 +1760,10 @@
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23"/>
       <c r="C23" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G23" s="4"/>
     </row>
@@ -1784,10 +1773,10 @@
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
       <c r="E24" s="18" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H24" s="18"/>
       <c r="J24" s="18"/>
@@ -1799,10 +1788,10 @@
       <c r="C25" s="18"/>
       <c r="E25" s="18"/>
       <c r="F25" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H25" s="18"/>
       <c r="J25" s="18"/>
@@ -1813,10 +1802,10 @@
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
       <c r="E26" s="18" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G26" s="18"/>
       <c r="H26" s="18"/>
@@ -1827,10 +1816,10 @@
       <c r="A27" s="18"/>
       <c r="B27" s="18"/>
       <c r="F27" s="18" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H27" s="21"/>
       <c r="J27" s="18"/>
@@ -1841,10 +1830,10 @@
       <c r="B28" s="18"/>
       <c r="E28" s="21"/>
       <c r="F28" s="18" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H28" s="18"/>
       <c r="I28" s="18"/>
@@ -1855,10 +1844,10 @@
       <c r="A29" s="18"/>
       <c r="B29" s="18"/>
       <c r="F29" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I29" s="18"/>
       <c r="J29" s="18"/>
@@ -1866,10 +1855,10 @@
     </row>
     <row r="30" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B30" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="12"/>
@@ -1877,20 +1866,20 @@
     <row r="31" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A31"/>
       <c r="C31" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="E32" s="4" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G32" s="17"/>
       <c r="H32" s="17"/>
@@ -1899,43 +1888,43 @@
       <c r="A33"/>
       <c r="E33" s="4"/>
       <c r="F33" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="E34" s="4"/>
       <c r="F34" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="E35" s="4"/>
       <c r="F35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="D36" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E36" s="4"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="E37" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="E38" s="18" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G38" s="17"/>
       <c r="H38" s="17"/>
@@ -1944,16 +1933,16 @@
       <c r="A39"/>
       <c r="E39" s="4"/>
       <c r="F39" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="C40" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G40" s="4"/>
     </row>
@@ -1963,10 +1952,10 @@
       <c r="C41" s="18"/>
       <c r="D41" s="18"/>
       <c r="E41" s="18" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H41" s="18"/>
       <c r="J41" s="18"/>
@@ -1978,10 +1967,10 @@
       <c r="C42" s="18"/>
       <c r="E42" s="18"/>
       <c r="F42" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G42" s="21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H42" s="18"/>
       <c r="J42" s="18"/>
@@ -1992,10 +1981,10 @@
       <c r="B43" s="18"/>
       <c r="C43" s="18"/>
       <c r="E43" s="18" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G43" s="18"/>
       <c r="H43" s="18"/>
@@ -2006,10 +1995,10 @@
       <c r="A44" s="18"/>
       <c r="B44" s="18"/>
       <c r="F44" s="18" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G44" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H44" s="21"/>
       <c r="J44" s="18"/>
@@ -2020,10 +2009,10 @@
       <c r="B45" s="18"/>
       <c r="E45" s="21"/>
       <c r="F45" s="18" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G45" s="18" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H45" s="18"/>
       <c r="I45" s="18"/>
@@ -2034,10 +2023,10 @@
       <c r="A46" s="18"/>
       <c r="B46" s="18"/>
       <c r="F46" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G46" s="21" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I46" s="18"/>
       <c r="J46" s="18"/>
@@ -2058,8 +2047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2076,13 +2065,13 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -2092,13 +2081,13 @@
     </row>
     <row r="2" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D2" s="31"/>
       <c r="E2" s="4"/>
@@ -2109,10 +2098,10 @@
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="8"/>
       <c r="B3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>33</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>34</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -2122,10 +2111,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="E4" s="4"/>
     </row>
@@ -2133,18 +2122,18 @@
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="E6" s="4" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G6" s="32"/>
       <c r="H6" s="32"/>
@@ -2152,53 +2141,53 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="E7" s="4"/>
       <c r="F7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="E8" s="4"/>
       <c r="F8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="E9" s="4"/>
       <c r="F9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D10" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="E11" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="E12" s="4" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G12" s="32"/>
       <c r="H12" s="32"/>
@@ -2206,28 +2195,28 @@
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="E13" s="4"/>
       <c r="F13" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="20" t="s">
         <v>80</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>85</v>
       </c>
       <c r="H13" s="20"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C14" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="E15" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
@@ -2235,7 +2224,7 @@
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="E16" s="4"/>
       <c r="F16" s="17" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
@@ -2253,10 +2242,10 @@
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="9"/>
       <c r="B18" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="8"/>
@@ -2266,46 +2255,46 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C19" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C20" s="14"/>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C21" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C22" s="14"/>
       <c r="E22" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="E23" s="4"/>
       <c r="F23" s="17" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
@@ -2314,10 +2303,10 @@
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="9"/>
       <c r="B25" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="12"/>
@@ -2327,19 +2316,19 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C26" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="E27" s="4" t="s">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G27" s="17"/>
       <c r="H27" s="17"/>
@@ -2347,38 +2336,38 @@
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="E28" s="4"/>
       <c r="F28" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="E29" s="4"/>
       <c r="F29" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="E30" s="4"/>
       <c r="F30" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D31" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="E32" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.4">
       <c r="E33" s="4" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="F33" s="32" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G33" s="32"/>
       <c r="H33" s="32"/>
@@ -2386,35 +2375,35 @@
     <row r="34" spans="3:8" x14ac:dyDescent="0.4">
       <c r="E34" s="4"/>
       <c r="F34" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G34" s="20" t="s">
         <v>80</v>
-      </c>
-      <c r="G34" s="20" t="s">
-        <v>85</v>
       </c>
       <c r="H34" s="20"/>
     </row>
     <row r="35" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C35" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E35" s="4"/>
     </row>
     <row r="36" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C36" s="14"/>
       <c r="E36" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="3:8" x14ac:dyDescent="0.4">
       <c r="E37" s="4"/>
       <c r="F37" s="17" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
